--- a/result_analysis/RQ1_results_spatialvla-4b.xlsx
+++ b/result_analysis/RQ1_results_spatialvla-4b.xlsx
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0.2327769124747092</v>
@@ -16347,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0.1786113160014125</v>
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0.08918182233012846</v>
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0.3937211088806587</v>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0.2648738386112932</v>
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0.2151936309644145</v>
@@ -16542,7 +16542,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0.175514891184286</v>
@@ -16581,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0.09468766411179975</v>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0.1839950746377509</v>
@@ -16659,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>0.269408088980107</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>0.6718407539541444</v>
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>0.5736132411678169</v>
@@ -16776,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0.08345971813050285</v>
@@ -16815,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0.1846200103599831</v>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0.3832514879472131</v>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0.3069168746228828</v>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>0.7877343133672075</v>
@@ -16971,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0.1739509177856817</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0.4027038970358527</v>
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0.2369428084455711</v>
@@ -17088,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0.07912903793520215</v>
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0.4621894326948117</v>
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0.5844229886446026</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>0.4142147785607812</v>
@@ -17244,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0.1111337340548183</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>0.7306965735772796</v>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>0.3097428642808911</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>0.3212591423046801</v>
@@ -17400,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0.1239162904408207</v>
@@ -17439,7 +17439,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0.3234147835293532</v>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>0.2698245917269071</v>
@@ -17517,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0.2108029871309694</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0.3400316500297229</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>0.497610770722357</v>
@@ -17634,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>0.1611910822693082</v>
@@ -17673,7 +17673,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0.2112731976739937</v>
@@ -17712,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0.375684562712228</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0.1162336729490517</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>0.4790576500979132</v>
@@ -17829,7 +17829,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0.4738521770744248</v>
@@ -17868,7 +17868,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0.05133872310547747</v>
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>0.3948249425425533</v>
@@ -17946,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0.3419569631703085</v>
@@ -17985,7 +17985,7 @@
         <v>1</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0.3606459476644462</v>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>0.5362953110752418</v>
@@ -18063,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0.1734914303832922</v>
@@ -18102,7 +18102,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0.218011485250609</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0.04126284852629764</v>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>0.4421374522906453</v>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>0.5038171376994441</v>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>0.1890513182868834</v>
@@ -18297,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0.1951749439783675</v>
@@ -18336,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0.1209107540154472</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>0.1992691804506565</v>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>0.184468678033643</v>
@@ -18453,7 +18453,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0.1223364385821179</v>
@@ -18492,7 +18492,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0.1646141527349609</v>
@@ -18531,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0.2674422177517805</v>
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>0.2080249992209543</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>0.333537683381457</v>
@@ -18648,7 +18648,7 @@
         <v>1</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0.09124299089926798</v>
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>0.2692799815109705</v>
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0.1809296064057539</v>
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>0.2474464076424125</v>
@@ -18804,7 +18804,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0.1899132801979802</v>
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0.136721071327874</v>
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0.2798491803520573</v>
@@ -18921,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>0.7912849450737924</v>
@@ -18960,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0.1446689190208628</v>
@@ -18999,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0.06623415043494289</v>
@@ -19038,7 +19038,7 @@
         <v>1</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0.2179312994699943</v>
@@ -19077,7 +19077,7 @@
         <v>1</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0.1216177892021168</v>
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0.07193830652162952</v>
@@ -19155,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>0.7503242844484411</v>
@@ -19194,7 +19194,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0.2360081694803957</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0.3478044788904679</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0.3675355379242892</v>
@@ -19311,7 +19311,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0.2695259094991242</v>
@@ -19350,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0.372626360789063</v>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>0.4005197683498674</v>
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0.1029471408794489</v>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>0.142512523720091</v>
@@ -19506,7 +19506,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0.2345540880336869</v>
@@ -19545,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0.2332522000691225</v>
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>0.2300715591066621</v>
@@ -19623,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0.09460587563898719</v>
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>0.3671359943296695</v>
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0.1038612201057608</v>
@@ -19740,7 +19740,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>0.2512485451428579</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0.4486694640322351</v>
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>0.2249556834818229</v>
@@ -19857,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0.2624705239039595</v>
@@ -19896,7 +19896,7 @@
         <v>1</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0.1576017834723216</v>
@@ -19935,7 +19935,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0.3897069434437537</v>
@@ -19974,7 +19974,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0.1007979847503409</v>
@@ -20013,7 +20013,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0.117188242166639</v>
@@ -20052,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>0.1647210499348624</v>
@@ -20091,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>0.6500982833359407</v>
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>0.1710368660505448</v>
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>0.4405710649712515</v>
@@ -20208,7 +20208,7 @@
         <v>1</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0.2968296470297772</v>
@@ -20247,7 +20247,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>0.1464766367861479</v>
@@ -20286,7 +20286,7 @@
         <v>0</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>0.8073528627662186</v>
@@ -20325,7 +20325,7 @@
         <v>1</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0.8381714825487797</v>
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0.04945234838821085</v>
@@ -20403,7 +20403,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0.05251070671467591</v>
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>0.3557440593544907</v>
@@ -20481,7 +20481,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0.03075987120037038</v>
@@ -20520,7 +20520,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="n">
         <v>0.1416091468537945</v>
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>0.3604644344135774</v>
@@ -20598,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0.1098403973377375</v>
@@ -20637,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>0.1251946227064406</v>
@@ -20676,7 +20676,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0.09345889267022701</v>
@@ -20715,7 +20715,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>0.2303542268414356</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0.0677824873707827</v>
@@ -20793,7 +20793,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0.03980940655186086</v>
@@ -20832,7 +20832,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0.0491909865226393</v>
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>0.2516411642571089</v>
@@ -20910,7 +20910,7 @@
         <v>1</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0.09406641694508307</v>
@@ -20949,7 +20949,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0.05381835248457899</v>
@@ -20988,7 +20988,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0.1149372017529573</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0.1278250606374232</v>
@@ -21066,7 +21066,7 @@
         <v>1</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0.04440813909887562</v>
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0.2438318658408757</v>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0.263902358892632</v>
@@ -21183,7 +21183,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0.04595181105776156</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>0.1579290658060084</v>
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0.079675591959569</v>
@@ -21300,7 +21300,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0.06356576320533693</v>
@@ -21339,7 +21339,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0.07372514341220227</v>
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0.02998937110841046</v>
@@ -21417,7 +21417,7 @@
         <v>1</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0.04889762480722442</v>
@@ -21456,7 +21456,7 @@
         <v>1</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0.04243687570391771</v>
@@ -21495,7 +21495,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0.0619582592653769</v>
@@ -21534,7 +21534,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0.2650657657948666</v>
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>0.1372965117676541</v>
@@ -21612,7 +21612,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0.07869698790897989</v>
@@ -21651,7 +21651,7 @@
         <v>1</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0.0667331100628612</v>
@@ -21690,7 +21690,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0.07241667701590149</v>
@@ -21729,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>0.07902210609236168</v>
@@ -21768,7 +21768,7 @@
         <v>1</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0.05683034738087825</v>
@@ -21807,7 +21807,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0.09410326973243946</v>
@@ -21846,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>0.0848875746282033</v>
@@ -21885,7 +21885,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0.03610129823044318</v>
@@ -21924,7 +21924,7 @@
         <v>1</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0.04239153978467342</v>
@@ -21963,7 +21963,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0.06251862118722164</v>
@@ -22002,7 +22002,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0.1197603768842352</v>
@@ -22041,7 +22041,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0.1108637014938732</v>
@@ -22080,7 +22080,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0.1021916279139293</v>
@@ -22119,7 +22119,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0.2430144213869018</v>
@@ -22158,7 +22158,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0.1419164754426446</v>
@@ -22197,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>0.3260974282277256</v>
@@ -22236,7 +22236,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0.04366188848858964</v>
@@ -22275,7 +22275,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>0.2736279562026513</v>
@@ -22314,7 +22314,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>0.1357769541767569</v>
@@ -22353,7 +22353,7 @@
         <v>1</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0.1095729462142157</v>
@@ -22392,7 +22392,7 @@
         <v>1</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0.1393860750749824</v>
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>0.09205736012296785</v>
@@ -22470,7 +22470,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0.05404551325168557</v>
@@ -22509,7 +22509,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0.08635801076924006</v>
@@ -22548,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>0.04620037561880472</v>
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0.058372711952345</v>
@@ -22626,7 +22626,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0.1386323610463456</v>
@@ -22665,7 +22665,7 @@
         <v>0</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>0.2843129173203411</v>
@@ -22704,7 +22704,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0.05117453201636923</v>
@@ -22743,7 +22743,7 @@
         <v>1</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0.04966259467676377</v>
@@ -22782,7 +22782,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>0.1417190704628896</v>
@@ -22821,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>0.09390973941045978</v>
@@ -22860,7 +22860,7 @@
         <v>1</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0.0359286797983291</v>
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>0.1413094038891557</v>
@@ -22938,7 +22938,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>0.1232437974215044</v>
@@ -22977,7 +22977,7 @@
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>0.2590057375291959</v>
@@ -23016,7 +23016,7 @@
         <v>1</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0.0975132354413316</v>
@@ -23055,7 +23055,7 @@
         <v>1</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0.1090015781555752</v>
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0.04722806232045702</v>
@@ -23133,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>0.213283100354096</v>
@@ -23172,7 +23172,7 @@
         <v>1</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0.3254890534165621</v>
@@ -23211,7 +23211,7 @@
         <v>1</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0.1956419516503976</v>
@@ -23250,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>0.07696085598179289</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0.1413704443699888</v>
@@ -23328,7 +23328,7 @@
         <v>1</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0.03937296987861454</v>
@@ -23367,7 +23367,7 @@
         <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>0.03988310560320116</v>
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0.3221859167278344</v>
@@ -23445,7 +23445,7 @@
         <v>1</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0.4635699004202856</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>0.1308283644032869</v>
@@ -23523,7 +23523,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0.2330323567792994</v>
@@ -23562,7 +23562,7 @@
         <v>1</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0.05287763662588511</v>
@@ -23601,7 +23601,7 @@
         <v>1</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0.05362311663807472</v>
@@ -23640,7 +23640,7 @@
         <v>1</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0.04392423852296935</v>
@@ -23679,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0.03717111423815769</v>
@@ -23718,7 +23718,7 @@
         <v>1</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0.09045038670812139</v>
@@ -23757,7 +23757,7 @@
         <v>1</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0.04425354218363844</v>
@@ -23796,7 +23796,7 @@
         <v>1</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0.07442050904737818</v>
@@ -23835,7 +23835,7 @@
         <v>1</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0.6526270454213797</v>
@@ -23874,7 +23874,7 @@
         <v>1</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="n">
         <v>0.06019418321212331</v>
@@ -23913,7 +23913,7 @@
         <v>1</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="n">
         <v>0.1561650990394997</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>0.6265764052016959</v>
@@ -23991,7 +23991,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>0.3464244722183856</v>
@@ -24030,7 +24030,7 @@
         <v>0</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>0.1447053023348399</v>
@@ -24069,7 +24069,7 @@
         <v>1</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0.07658860727093716</v>
@@ -24108,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="n">
         <v>0.1995149436627143</v>
@@ -24147,7 +24147,7 @@
         <v>1</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0.1743031902641058</v>
@@ -24186,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0.03498555145477503</v>
@@ -24225,7 +24225,7 @@
         <v>1</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0.04264591490756756</v>
@@ -24264,7 +24264,7 @@
         <v>1</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0.05089551780482091</v>
@@ -24303,7 +24303,7 @@
         <v>1</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="n">
         <v>0.07331956637372335</v>
@@ -24342,7 +24342,7 @@
         <v>1</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="n">
         <v>0.03348777290177594</v>
@@ -24381,7 +24381,7 @@
         <v>1</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0.3152862470944855</v>
@@ -24420,7 +24420,7 @@
         <v>1</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0.08087429030245856</v>
@@ -24459,7 +24459,7 @@
         <v>1</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0.04780478381886002</v>
@@ -24498,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>0.3976834111295506</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>0.1758843884317914</v>
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>0.04612359259239041</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>0.06839228916270793</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0.130603793256039</v>
@@ -24693,7 +24693,7 @@
         <v>1</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="n">
         <v>0.07344825084479596</v>
@@ -24732,7 +24732,7 @@
         <v>1</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0.04172481771706015</v>
@@ -24771,7 +24771,7 @@
         <v>1</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0.04125997147626678</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>0.06897294590101187</v>
@@ -24849,7 +24849,7 @@
         <v>1</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="n">
         <v>0.1798729466591811</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I627" t="n">
         <v>0.06133928853856014</v>
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>0.1503544438762793</v>
@@ -24966,7 +24966,7 @@
         <v>1</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="n">
         <v>0.07383669922943324</v>
@@ -25005,7 +25005,7 @@
         <v>1</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="n">
         <v>0.0472755780329138</v>
@@ -25044,7 +25044,7 @@
         <v>1</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="n">
         <v>0.1397269873844215</v>
@@ -25083,7 +25083,7 @@
         <v>1</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0.03266907947975758</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>0.1553334871979394</v>
@@ -25161,7 +25161,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>0.1282187705327283</v>
@@ -25200,7 +25200,7 @@
         <v>1</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0.0327484183134206</v>
@@ -25239,7 +25239,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>0.0772345000798654</v>
@@ -25278,7 +25278,7 @@
         <v>1</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0.1250062427279304</v>
@@ -25317,7 +25317,7 @@
         <v>1</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0.07914019917010814</v>
@@ -25356,7 +25356,7 @@
         <v>1</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0.1214998824297572</v>
@@ -25395,7 +25395,7 @@
         <v>1</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0.06581077174307354</v>
@@ -25434,7 +25434,7 @@
         <v>1</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0.02964072780339448</v>
@@ -25473,7 +25473,7 @@
         <v>1</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0.09983581920798257</v>
@@ -25512,7 +25512,7 @@
         <v>1</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0.05809552037327478</v>
@@ -25551,7 +25551,7 @@
         <v>1</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0.06631724545605965</v>
@@ -25590,7 +25590,7 @@
         <v>1</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0.0839571611096185</v>
@@ -25629,7 +25629,7 @@
         <v>1</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0.608215560986106</v>
@@ -25668,7 +25668,7 @@
         <v>1</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="n">
         <v>0.05262190810265432</v>
@@ -25707,7 +25707,7 @@
         <v>1</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0.178253817072431</v>
@@ -25746,7 +25746,7 @@
         <v>1</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0.03664073550974536</v>
@@ -25785,7 +25785,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>0.04870855310794101</v>
@@ -25824,7 +25824,7 @@
         <v>1</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="n">
         <v>0.06277717215575349</v>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0.08497401121383949</v>
@@ -25902,7 +25902,7 @@
         <v>1</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0.07250532212807029</v>
@@ -25941,7 +25941,7 @@
         <v>1</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0.08798639138273935</v>
@@ -25980,7 +25980,7 @@
         <v>1</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0.1671661857370681</v>
@@ -26019,7 +26019,7 @@
         <v>1</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="n">
         <v>0.04589949267109446</v>
@@ -26058,7 +26058,7 @@
         <v>1</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0.1229110936671453</v>
@@ -26097,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>0.03751374417452667</v>
@@ -26136,7 +26136,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>0.5781961399980545</v>
@@ -26175,7 +26175,7 @@
         <v>1</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="n">
         <v>0.1109425990455549</v>
@@ -26214,7 +26214,7 @@
         <v>1</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="n">
         <v>0.06055672896877937</v>
@@ -26253,7 +26253,7 @@
         <v>1</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="n">
         <v>0.07757135375499973</v>
@@ -26292,7 +26292,7 @@
         <v>1</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0.1203546539740291</v>
@@ -26331,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>0.1953866596927794</v>
@@ -26370,7 +26370,7 @@
         <v>1</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="n">
         <v>0.06346095926085793</v>
@@ -26409,7 +26409,7 @@
         <v>1</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0.05965024837448778</v>
@@ -26448,7 +26448,7 @@
         <v>1</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0.05891347800946643</v>
@@ -26487,7 +26487,7 @@
         <v>1</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0.3329885156247639</v>
@@ -26526,7 +26526,7 @@
         <v>1</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0.09310576081283931</v>
@@ -26565,7 +26565,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>0.08576619091840022</v>
@@ -26604,7 +26604,7 @@
         <v>1</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0.04741282588737437</v>
@@ -26643,7 +26643,7 @@
         <v>1</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0.07115079423046705</v>
@@ -26682,7 +26682,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0.1974162123463329</v>
@@ -26721,7 +26721,7 @@
         <v>1</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0.07670575001898208</v>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>0.1400349472581375</v>
@@ -26799,7 +26799,7 @@
         <v>1</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0.06792697413652704</v>
@@ -26838,7 +26838,7 @@
         <v>1</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
         <v>0.05306738326409825</v>
@@ -26877,7 +26877,7 @@
         <v>1</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0.1020821142587959</v>
@@ -26916,7 +26916,7 @@
         <v>1</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0.1328881502331949</v>
@@ -26955,7 +26955,7 @@
         <v>1</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0.1017495820529775</v>
@@ -26994,7 +26994,7 @@
         <v>0</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>0.1184690058179772</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>0.244575998785217</v>
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I683" t="n">
         <v>0.4055240089906185</v>
@@ -27111,7 +27111,7 @@
         <v>1</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0.08994887729069453</v>
@@ -27150,7 +27150,7 @@
         <v>1</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0.1626220366928011</v>
@@ -27189,7 +27189,7 @@
         <v>1</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0.1287808794959615</v>
@@ -27228,7 +27228,7 @@
         <v>1</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0.06854661736109471</v>
@@ -27267,7 +27267,7 @@
         <v>0</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I688" t="n">
         <v>0.3004788484754713</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>0.2271021160934291</v>
@@ -27345,7 +27345,7 @@
         <v>1</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0.08108117061143766</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I691" t="n">
         <v>0.0661955861149027</v>
@@ -27423,7 +27423,7 @@
         <v>1</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0.1441532007289943</v>
@@ -27462,7 +27462,7 @@
         <v>1</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0.04232757321302769</v>
@@ -27501,7 +27501,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>0.2640401709327397</v>
@@ -27540,7 +27540,7 @@
         <v>1</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0.04812994128084991</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>0.05355477048658992</v>
@@ -27618,7 +27618,7 @@
         <v>1</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0.04507532853557427</v>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>0.2850391665964975</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0.0613191787729655</v>
@@ -27735,7 +27735,7 @@
         <v>1</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0.05446759031328727</v>
@@ -27774,7 +27774,7 @@
         <v>1</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0.04877268501809805</v>
@@ -27813,7 +27813,7 @@
         <v>1</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0.1492688776973908</v>
@@ -27852,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>0.2506105570459054</v>
@@ -27891,7 +27891,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>0.3462025808665818</v>
@@ -27930,7 +27930,7 @@
         <v>1</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0.3479605293272584</v>
@@ -27969,7 +27969,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>0.266500465605451</v>
@@ -28008,7 +28008,7 @@
         <v>0</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>0.2169492107518016</v>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>0.2624943045225415</v>
@@ -28086,7 +28086,7 @@
         <v>0</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709" t="n">
         <v>0.1551725873656762</v>
@@ -28125,7 +28125,7 @@
         <v>1</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0.06077080422908246</v>
@@ -28164,7 +28164,7 @@
         <v>1</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0.05859689133913629</v>
@@ -28203,7 +28203,7 @@
         <v>0</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I712" t="n">
         <v>0.1972491987166557</v>
@@ -28242,7 +28242,7 @@
         <v>1</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0.06095957816948725</v>
@@ -28281,7 +28281,7 @@
         <v>1</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0.07693829063955956</v>
@@ -28320,7 +28320,7 @@
         <v>1</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0.1095992444753826</v>
@@ -28359,7 +28359,7 @@
         <v>1</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0.07617839085016724</v>
@@ -28398,7 +28398,7 @@
         <v>1</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0.297028035929827</v>
@@ -28437,7 +28437,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>0.1189112285633202</v>
@@ -28476,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>0.158225462374972</v>
@@ -28515,7 +28515,7 @@
         <v>1</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0.1044534863866164</v>
@@ -28554,7 +28554,7 @@
         <v>1</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0.1065570777021406</v>
@@ -28593,7 +28593,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>0.2107546592212452</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>0.05441033556756676</v>
@@ -28671,7 +28671,7 @@
         <v>1</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0.13857866766876</v>
@@ -28710,7 +28710,7 @@
         <v>1</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0.5089919566731327</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>0.5726608777552776</v>
@@ -28788,7 +28788,7 @@
         <v>1</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0.1828123581189496</v>
@@ -28827,7 +28827,7 @@
         <v>1</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0.1416074568505343</v>
@@ -28866,7 +28866,7 @@
         <v>1</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0.04112969881269513</v>
@@ -28905,7 +28905,7 @@
         <v>1</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0.2658943138440157</v>
@@ -28944,7 +28944,7 @@
         <v>1</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0.04778107998714351</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I732" t="n">
         <v>0.4630993803619491</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0.2868717590700811</v>
@@ -29061,7 +29061,7 @@
         <v>1</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0.08199039732580188</v>
@@ -29100,7 +29100,7 @@
         <v>1</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0.6822166702478097</v>
@@ -29139,7 +29139,7 @@
         <v>1</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0.129159400377288</v>
@@ -29178,7 +29178,7 @@
         <v>1</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0.08528537456150692</v>
@@ -29217,7 +29217,7 @@
         <v>1</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0.2776663585332422</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I739" t="n">
         <v>0.4215300442401742</v>
@@ -29295,7 +29295,7 @@
         <v>1</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0.3491230402562344</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>0.3978582573530021</v>
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>0.1693611009229629</v>
@@ -29412,7 +29412,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>0.1831014179338281</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I744" t="n">
         <v>0.07382041984809436</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>0.1196445269115753</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>0.1684648610256966</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>0.3540452798056756</v>
@@ -29607,7 +29607,7 @@
         <v>1</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0.08058418198859461</v>
@@ -29646,7 +29646,7 @@
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>0.2367431506067873</v>
@@ -29685,7 +29685,7 @@
         <v>1</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0.2987643539326346</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>0.4830635144264134</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>0.2801517483325698</v>
@@ -29802,7 +29802,7 @@
         <v>1</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0.1189251298925661</v>
@@ -29841,7 +29841,7 @@
         <v>1</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="n">
         <v>0.1221712448716035</v>
@@ -29880,7 +29880,7 @@
         <v>0</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>0.1193037110009342</v>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>0.7048482828885105</v>
@@ -29958,7 +29958,7 @@
         <v>1</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="n">
         <v>0.03520813872331902</v>
@@ -29997,7 +29997,7 @@
         <v>1</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="n">
         <v>0.07558619851594435</v>
@@ -30036,7 +30036,7 @@
         <v>1</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="n">
         <v>0.1773077755231915</v>
@@ -30075,7 +30075,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>0.2203679399304809</v>
@@ -30114,7 +30114,7 @@
         <v>0</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>0.6470210357957821</v>
@@ -30153,7 +30153,7 @@
         <v>1</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="n">
         <v>0.2432491305703882</v>
@@ -30192,7 +30192,7 @@
         <v>1</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I763" t="n">
         <v>0.1249965355576654</v>
@@ -30231,7 +30231,7 @@
         <v>1</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="n">
         <v>0.1862046040375949</v>
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>0.09257318182242782</v>
@@ -30309,7 +30309,7 @@
         <v>1</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="n">
         <v>0.2365791659492731</v>
@@ -30348,7 +30348,7 @@
         <v>1</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I767" t="n">
         <v>0.6066640668118755</v>
@@ -30387,7 +30387,7 @@
         <v>1</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="n">
         <v>0.07696257032012452</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>0.4294520153164841</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>0.7144482773881911</v>
@@ -30504,7 +30504,7 @@
         <v>1</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="n">
         <v>0.1690379754043183</v>
@@ -30543,7 +30543,7 @@
         <v>0</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>0.3541869795009198</v>
@@ -30582,7 +30582,7 @@
         <v>0</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>0.3497618382899677</v>
@@ -30621,7 +30621,7 @@
         <v>1</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
         <v>0.05261379541303743</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>0.2785141974222997</v>
@@ -30699,7 +30699,7 @@
         <v>1</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0.08764698109375421</v>
@@ -30738,7 +30738,7 @@
         <v>0</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>0.299222281222102</v>
@@ -30777,7 +30777,7 @@
         <v>1</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="n">
         <v>0.135034944102923</v>
@@ -30816,7 +30816,7 @@
         <v>1</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="n">
         <v>0.1217702497701117</v>
@@ -30855,7 +30855,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>0.1974776278716317</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>0.3693226704802719</v>
@@ -30933,7 +30933,7 @@
         <v>1</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0.1251061988180102</v>
@@ -30972,7 +30972,7 @@
         <v>1</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="n">
         <v>0.05034901253830438</v>
@@ -31011,7 +31011,7 @@
         <v>0</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>0.2172771601269028</v>
@@ -31050,7 +31050,7 @@
         <v>0</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>0.4454284100232153</v>
@@ -31089,7 +31089,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>0.1448150363494459</v>
@@ -31128,7 +31128,7 @@
         <v>1</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0.1887059295678763</v>
@@ -31167,7 +31167,7 @@
         <v>0</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>0.1344836456548952</v>
@@ -31206,7 +31206,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>0.0640346498196922</v>
@@ -31245,7 +31245,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>0.1174924219063274</v>
@@ -31284,7 +31284,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>0.5765010578141362</v>
@@ -31323,7 +31323,7 @@
         <v>1</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0.05661123227481352</v>
@@ -31362,7 +31362,7 @@
         <v>0</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I793" t="n">
         <v>0.4055440915657448</v>
@@ -31401,7 +31401,7 @@
         <v>1</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="n">
         <v>0.02926539212051959</v>
@@ -31440,7 +31440,7 @@
         <v>1</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="n">
         <v>0.2329426634176103</v>
@@ -31479,7 +31479,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I796" t="n">
         <v>0.4268723853484826</v>
@@ -31518,7 +31518,7 @@
         <v>1</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="n">
         <v>0.1029783824037978</v>
@@ -31557,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>0.3714528163440908</v>
@@ -31596,7 +31596,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>0.3386588389723054</v>
@@ -31635,7 +31635,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>0.445252580585066</v>
@@ -31674,7 +31674,7 @@
         <v>0</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>0.1613079884102695</v>
@@ -31713,7 +31713,7 @@
         <v>1</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
         <v>0.07751328623230885</v>
@@ -31752,7 +31752,7 @@
         <v>1</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0.479266754241959</v>
@@ -31791,7 +31791,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>0.3227608157671422</v>
@@ -31830,7 +31830,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>0.3953462023738968</v>
@@ -31869,7 +31869,7 @@
         <v>1</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0.1186487304748715</v>
@@ -31908,7 +31908,7 @@
         <v>1</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0.1152071332132732</v>
@@ -31947,7 +31947,7 @@
         <v>0</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>0.1891940849070132</v>
@@ -31986,7 +31986,7 @@
         <v>1</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0.4393885160800797</v>
@@ -32025,7 +32025,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>0.107616259742079</v>
@@ -32064,7 +32064,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>0.4244025525230644</v>
